--- a/config_hlw/task_server.xlsx
+++ b/config_hlw/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -3105,12 +3105,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3130,6 +3124,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3411,9 +3411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6475,108 +6475,108 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>85</v>
       </c>
-      <c r="B85" s="80">
-        <v>1</v>
-      </c>
-      <c r="C85" s="81" t="s">
+      <c r="B85" s="78">
+        <v>1</v>
+      </c>
+      <c r="C85" s="79" t="s">
         <v>558</v>
       </c>
-      <c r="E85" s="82" t="s">
+      <c r="E85" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="F85" s="81" t="s">
+      <c r="F85" s="79" t="s">
         <v>562</v>
       </c>
       <c r="G85" s="11">
         <v>85</v>
       </c>
-      <c r="J85" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="K85" s="80">
-        <v>1</v>
-      </c>
-      <c r="L85" s="80">
+      <c r="J85" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" s="78">
+        <v>1</v>
+      </c>
+      <c r="L85" s="78">
         <v>946656000</v>
       </c>
-      <c r="M85" s="80">
+      <c r="M85" s="78">
         <v>32503651200</v>
       </c>
-      <c r="N85" s="80">
+      <c r="N85" s="78">
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>86</v>
       </c>
-      <c r="B86" s="80">
-        <v>1</v>
-      </c>
-      <c r="C86" s="81" t="s">
+      <c r="B86" s="78">
+        <v>1</v>
+      </c>
+      <c r="C86" s="79" t="s">
         <v>560</v>
       </c>
-      <c r="E86" s="82" t="s">
+      <c r="E86" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="F86" s="81" t="s">
+      <c r="F86" s="79" t="s">
         <v>559</v>
       </c>
       <c r="G86" s="11">
         <v>86</v>
       </c>
-      <c r="J86" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="K86" s="80">
-        <v>1</v>
-      </c>
-      <c r="L86" s="80">
+      <c r="J86" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" s="78">
+        <v>1</v>
+      </c>
+      <c r="L86" s="78">
         <v>946656000</v>
       </c>
-      <c r="M86" s="80">
+      <c r="M86" s="78">
         <v>32503651200</v>
       </c>
-      <c r="N86" s="80">
+      <c r="N86" s="78">
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>87</v>
       </c>
-      <c r="B87" s="80">
-        <v>1</v>
-      </c>
-      <c r="C87" s="82" t="s">
+      <c r="B87" s="78">
+        <v>1</v>
+      </c>
+      <c r="C87" s="80" t="s">
         <v>561</v>
       </c>
-      <c r="E87" s="82" t="s">
+      <c r="E87" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="F87" s="81" t="s">
+      <c r="F87" s="79" t="s">
         <v>559</v>
       </c>
       <c r="G87" s="11">
         <v>87</v>
       </c>
-      <c r="J87" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="K87" s="80">
-        <v>1</v>
-      </c>
-      <c r="L87" s="80">
+      <c r="J87" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87" s="78">
+        <v>1</v>
+      </c>
+      <c r="L87" s="78">
         <v>946656000</v>
       </c>
-      <c r="M87" s="80">
+      <c r="M87" s="78">
         <v>32503651200</v>
       </c>
-      <c r="N87" s="80">
+      <c r="N87" s="78">
         <v>-1</v>
       </c>
     </row>
@@ -9936,7 +9936,7 @@
       <c r="B86" s="76">
         <v>85</v>
       </c>
-      <c r="C86" s="83"/>
+      <c r="C86" s="81"/>
       <c r="D86" s="76">
         <v>85</v>
       </c>
@@ -9959,7 +9959,7 @@
       <c r="B87" s="76">
         <v>86</v>
       </c>
-      <c r="C87" s="83"/>
+      <c r="C87" s="81"/>
       <c r="D87" s="76">
         <v>86</v>
       </c>
@@ -9982,7 +9982,7 @@
       <c r="B88" s="76">
         <v>87</v>
       </c>
-      <c r="C88" s="83"/>
+      <c r="C88" s="81"/>
       <c r="D88" s="76">
         <v>87</v>
       </c>
@@ -9994,7 +9994,7 @@
       <c r="H88" s="39">
         <v>107</v>
       </c>
-      <c r="I88" s="84" t="s">
+      <c r="I88" s="82" t="s">
         <v>563</v>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       <c r="B97" s="8">
         <v>85</v>
       </c>
-      <c r="C97" s="83" t="s">
+      <c r="C97" s="81" t="s">
         <v>564</v>
       </c>
       <c r="D97" s="8">
@@ -12274,7 +12274,7 @@
       <c r="B98" s="8">
         <v>86</v>
       </c>
-      <c r="C98" s="84" t="s">
+      <c r="C98" s="82" t="s">
         <v>564</v>
       </c>
       <c r="D98" s="8">
@@ -14204,8 +14204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
@@ -16059,16 +16059,16 @@
       <c r="A102" s="11">
         <v>101</v>
       </c>
-      <c r="B102" s="85">
+      <c r="B102" s="83">
         <v>105</v>
       </c>
-      <c r="C102" s="86" t="s">
+      <c r="C102" s="84" t="s">
         <v>565</v>
       </c>
-      <c r="D102" s="85">
+      <c r="D102" s="83">
         <v>100</v>
       </c>
-      <c r="E102" s="85">
+      <c r="E102" s="83">
         <v>1</v>
       </c>
     </row>
@@ -16076,16 +16076,16 @@
       <c r="A103" s="11">
         <v>102</v>
       </c>
-      <c r="B103" s="85">
+      <c r="B103" s="83">
         <v>105</v>
       </c>
-      <c r="C103" s="86" t="s">
+      <c r="C103" s="84" t="s">
         <v>567</v>
       </c>
-      <c r="D103" s="85">
-        <v>1</v>
-      </c>
-      <c r="E103" s="85">
+      <c r="D103" s="83">
+        <v>1</v>
+      </c>
+      <c r="E103" s="83">
         <v>1</v>
       </c>
     </row>
@@ -16093,16 +16093,16 @@
       <c r="A104" s="11">
         <v>103</v>
       </c>
-      <c r="B104" s="85">
+      <c r="B104" s="83">
         <v>106</v>
       </c>
-      <c r="C104" s="86" t="s">
+      <c r="C104" s="84" t="s">
         <v>369</v>
       </c>
-      <c r="D104" s="85">
+      <c r="D104" s="83">
         <v>100</v>
       </c>
-      <c r="E104" s="85">
+      <c r="E104" s="83">
         <v>1</v>
       </c>
     </row>
@@ -16110,16 +16110,16 @@
       <c r="A105" s="11">
         <v>104</v>
       </c>
-      <c r="B105" s="85">
+      <c r="B105" s="83">
         <v>106</v>
       </c>
-      <c r="C105" s="86" t="s">
+      <c r="C105" s="84" t="s">
         <v>568</v>
       </c>
-      <c r="D105" s="85">
+      <c r="D105" s="83">
         <v>4000</v>
       </c>
-      <c r="E105" s="85">
+      <c r="E105" s="83">
         <v>1</v>
       </c>
     </row>
@@ -16127,16 +16127,16 @@
       <c r="A106" s="11">
         <v>105</v>
       </c>
-      <c r="B106" s="85">
+      <c r="B106" s="83">
         <v>106</v>
       </c>
-      <c r="C106" s="86" t="s">
+      <c r="C106" s="84" t="s">
         <v>566</v>
       </c>
-      <c r="D106" s="85">
-        <v>1</v>
-      </c>
-      <c r="E106" s="85">
+      <c r="D106" s="83">
+        <v>1</v>
+      </c>
+      <c r="E106" s="83">
         <v>1</v>
       </c>
     </row>
@@ -16144,16 +16144,16 @@
       <c r="A107" s="11">
         <v>106</v>
       </c>
-      <c r="B107" s="85">
+      <c r="B107" s="83">
         <v>107</v>
       </c>
-      <c r="C107" s="86" t="s">
+      <c r="C107" s="84" t="s">
         <v>369</v>
       </c>
-      <c r="D107" s="85">
+      <c r="D107" s="83">
         <v>220</v>
       </c>
-      <c r="E107" s="85">
+      <c r="E107" s="83">
         <v>1</v>
       </c>
       <c r="F107" s="76"/>
@@ -16163,16 +16163,16 @@
       <c r="A108" s="11">
         <v>107</v>
       </c>
-      <c r="B108" s="85">
+      <c r="B108" s="83">
         <v>107</v>
       </c>
-      <c r="C108" s="86" t="s">
+      <c r="C108" s="84" t="s">
         <v>383</v>
       </c>
-      <c r="D108" s="85">
+      <c r="D108" s="83">
         <v>5000</v>
       </c>
-      <c r="E108" s="85">
+      <c r="E108" s="83">
         <v>1</v>
       </c>
       <c r="F108" s="76"/>
@@ -16182,16 +16182,16 @@
       <c r="A109" s="11">
         <v>108</v>
       </c>
-      <c r="B109" s="85">
+      <c r="B109" s="83">
         <v>107</v>
       </c>
-      <c r="C109" s="86" t="s">
+      <c r="C109" s="84" t="s">
         <v>566</v>
       </c>
-      <c r="D109" s="85">
-        <v>1</v>
-      </c>
-      <c r="E109" s="85">
+      <c r="D109" s="83">
+        <v>1</v>
+      </c>
+      <c r="E109" s="83">
         <v>1</v>
       </c>
       <c r="F109" s="76"/>
@@ -19343,10 +19343,10 @@
       <c r="A2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="78">
+      <c r="C2" s="85">
         <v>1</v>
       </c>
     </row>
@@ -19354,8 +19354,8 @@
       <c r="A3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -19405,10 +19405,10 @@
       <c r="A8" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="85" t="s">
         <v>260</v>
       </c>
     </row>
@@ -19416,17 +19416,17 @@
       <c r="A9" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="85">
         <v>1</v>
       </c>
     </row>
@@ -19434,8 +19434,8 @@
       <c r="A11" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -19540,10 +19540,10 @@
       <c r="A21" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="86" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="86">
         <v>1</v>
       </c>
     </row>
@@ -19551,8 +19551,8 @@
       <c r="A22" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -52558,10 +52558,10 @@
       <c r="A45" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="85" t="s">
         <v>260</v>
       </c>
     </row>
@@ -52569,8 +52569,8 @@
       <c r="A46" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -52673,16 +52673,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_hlw/task_server.xlsx
+++ b/config_hlw/task_server.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="571">
   <si>
     <t>id|任务id</t>
   </si>
@@ -2647,10 +2647,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>all_return_gift_lb</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t> 全返礼包2（月返）--在3D捕鱼中累计消耗50万</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2658,10 +2654,6 @@
     <t>全返礼包3，20次任务，小游戏累计赢金200万可领取5元激励金</t>
   </si>
   <si>
-    <t>all_return_gift_lb</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>nor</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2682,6 +2674,20 @@
   </si>
   <si>
     <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_all_return_lb_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_all_return_lb_2</t>
+  </si>
+  <si>
+    <t>new_all_return_lb_3</t>
+  </si>
+  <si>
+    <t>new_all_return_lb_task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3413,7 +3419,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6485,14 +6491,17 @@
       <c r="C85" s="79" t="s">
         <v>558</v>
       </c>
-      <c r="E85" s="80" t="s">
-        <v>117</v>
+      <c r="E85" s="79" t="s">
+        <v>567</v>
       </c>
       <c r="F85" s="79" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="G85" s="11">
         <v>85</v>
+      </c>
+      <c r="H85" s="78">
+        <v>1</v>
       </c>
       <c r="J85" s="78" t="b">
         <v>1</v>
@@ -6518,16 +6527,19 @@
         <v>1</v>
       </c>
       <c r="C86" s="79" t="s">
-        <v>560</v>
-      </c>
-      <c r="E86" s="80" t="s">
-        <v>118</v>
+        <v>559</v>
+      </c>
+      <c r="E86" s="79" t="s">
+        <v>568</v>
       </c>
       <c r="F86" s="79" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="G86" s="11">
         <v>86</v>
+      </c>
+      <c r="H86" s="78">
+        <v>1</v>
       </c>
       <c r="J86" s="78" t="b">
         <v>1</v>
@@ -6553,16 +6565,19 @@
         <v>1</v>
       </c>
       <c r="C87" s="80" t="s">
-        <v>561</v>
-      </c>
-      <c r="E87" s="80" t="s">
-        <v>119</v>
+        <v>560</v>
+      </c>
+      <c r="E87" s="79" t="s">
+        <v>569</v>
       </c>
       <c r="F87" s="79" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="G87" s="11">
         <v>87</v>
+      </c>
+      <c r="H87" s="78">
+        <v>1</v>
       </c>
       <c r="J87" s="78" t="b">
         <v>1</v>
@@ -9995,7 +10010,7 @@
         <v>107</v>
       </c>
       <c r="I88" s="82" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -12258,7 +12273,7 @@
         <v>85</v>
       </c>
       <c r="C97" s="81" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D97" s="8">
         <v>0</v>
@@ -12275,7 +12290,7 @@
         <v>86</v>
       </c>
       <c r="C98" s="82" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D98" s="8">
         <v>0</v>
@@ -16063,7 +16078,7 @@
         <v>105</v>
       </c>
       <c r="C102" s="84" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D102" s="83">
         <v>100</v>
@@ -16080,7 +16095,7 @@
         <v>105</v>
       </c>
       <c r="C103" s="84" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D103" s="83">
         <v>1</v>
@@ -16114,7 +16129,7 @@
         <v>106</v>
       </c>
       <c r="C105" s="84" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D105" s="83">
         <v>4000</v>
@@ -16131,7 +16146,7 @@
         <v>106</v>
       </c>
       <c r="C106" s="84" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D106" s="83">
         <v>1</v>
@@ -16186,7 +16201,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="84" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D109" s="83">
         <v>1</v>
@@ -52673,16 +52688,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_hlw/task_server.xlsx
+++ b/config_hlw/task_server.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="603">
   <si>
     <t>id|任务id</t>
   </si>
@@ -2688,6 +2688,180 @@
   </si>
   <si>
     <t>new_all_return_lb_task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xian_shi_hong_bao_task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时红包-0.01奖励金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时红包-2奖励金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时红包-3奖励金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时红包-10奖励金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时红包-1奖励金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时红包-3奖励金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获任意鱼10条</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔充值≥6元</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50000</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100000</t>
+  </si>
+  <si>
+    <t>p_xshb_042_hlw</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lianxianxiaoxiaole_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lianxianxiaoxiaole_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buyu_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3d_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>award</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_gift</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ay_money</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金10000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>withdraw_cash_xshb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2892,7 +3066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3132,11 +3306,20 @@
     <xf numFmtId="58" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3415,11 +3598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7702,6 +7885,238 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="115" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="61">
+        <v>100019</v>
+      </c>
+      <c r="B115" s="13">
+        <v>1</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="G115" s="61">
+        <v>100018</v>
+      </c>
+      <c r="J115" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K115" s="13">
+        <v>1</v>
+      </c>
+      <c r="L115" s="13">
+        <v>1607994000</v>
+      </c>
+      <c r="M115" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="N115" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="61">
+        <v>100020</v>
+      </c>
+      <c r="B116" s="13">
+        <v>1</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="E116" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="G116" s="61">
+        <v>100018</v>
+      </c>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" s="13">
+        <v>1</v>
+      </c>
+      <c r="L116" s="13">
+        <v>1607994000</v>
+      </c>
+      <c r="M116" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="N116" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="61">
+        <v>100021</v>
+      </c>
+      <c r="B117" s="13">
+        <v>1</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="E117" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="G117" s="61">
+        <v>100018</v>
+      </c>
+      <c r="J117" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" s="13">
+        <v>1</v>
+      </c>
+      <c r="L117" s="13">
+        <v>1607994000</v>
+      </c>
+      <c r="M117" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="N117" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="61">
+        <v>100022</v>
+      </c>
+      <c r="B118" s="13">
+        <v>1</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="E118" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="G118" s="61">
+        <v>100018</v>
+      </c>
+      <c r="J118" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" s="13">
+        <v>1</v>
+      </c>
+      <c r="L118" s="13">
+        <v>1607994000</v>
+      </c>
+      <c r="M118" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="N118" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="61">
+        <v>100023</v>
+      </c>
+      <c r="B119" s="13">
+        <v>1</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="E119" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="G119" s="61">
+        <v>100018</v>
+      </c>
+      <c r="H119" s="28"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" s="13">
+        <v>1</v>
+      </c>
+      <c r="L119" s="13">
+        <v>1607994000</v>
+      </c>
+      <c r="M119" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="N119" s="28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="61">
+        <v>100024</v>
+      </c>
+      <c r="B120" s="13">
+        <v>1</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="E120" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="G120" s="61">
+        <v>100018</v>
+      </c>
+      <c r="J120" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K120" s="13">
+        <v>1</v>
+      </c>
+      <c r="L120" s="13">
+        <v>1607994000</v>
+      </c>
+      <c r="M120" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="N120" s="13">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7711,11 +8126,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10618,6 +11033,144 @@
       <c r="H115" s="63"/>
       <c r="I115" s="60"/>
     </row>
+    <row r="116" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="28">
+        <v>115</v>
+      </c>
+      <c r="B116" s="28">
+        <v>100019</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14">
+        <v>99</v>
+      </c>
+      <c r="E116" s="14"/>
+      <c r="F116" s="88" t="s">
+        <v>584</v>
+      </c>
+      <c r="G116" s="89"/>
+      <c r="H116" s="14">
+        <v>199</v>
+      </c>
+      <c r="I116" s="33" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="28">
+        <v>116</v>
+      </c>
+      <c r="B117" s="28">
+        <v>100020</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14">
+        <v>100</v>
+      </c>
+      <c r="E117" s="14"/>
+      <c r="F117" s="88" t="s">
+        <v>591</v>
+      </c>
+      <c r="G117" s="89"/>
+      <c r="H117" s="14">
+        <v>200</v>
+      </c>
+      <c r="I117" s="33" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="28">
+        <v>117</v>
+      </c>
+      <c r="B118" s="28">
+        <v>100021</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14">
+        <v>101</v>
+      </c>
+      <c r="E118" s="14"/>
+      <c r="F118" s="88" t="s">
+        <v>593</v>
+      </c>
+      <c r="G118" s="89"/>
+      <c r="H118" s="14">
+        <v>201</v>
+      </c>
+      <c r="I118" s="33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="28">
+        <v>118</v>
+      </c>
+      <c r="B119" s="28">
+        <v>100022</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14">
+        <v>99</v>
+      </c>
+      <c r="E119" s="14"/>
+      <c r="F119" s="88" t="s">
+        <v>598</v>
+      </c>
+      <c r="G119" s="89"/>
+      <c r="H119" s="14">
+        <v>202</v>
+      </c>
+      <c r="I119" s="33" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="28">
+        <v>119</v>
+      </c>
+      <c r="B120" s="28">
+        <v>100023</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14">
+        <v>99</v>
+      </c>
+      <c r="E120" s="14"/>
+      <c r="F120" s="88" t="s">
+        <v>599</v>
+      </c>
+      <c r="G120" s="89"/>
+      <c r="H120" s="14">
+        <v>203</v>
+      </c>
+      <c r="I120" s="33" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="28">
+        <v>120</v>
+      </c>
+      <c r="B121" s="28">
+        <v>100024</v>
+      </c>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14">
+        <v>99</v>
+      </c>
+      <c r="E121" s="14"/>
+      <c r="F121" s="88" t="s">
+        <v>600</v>
+      </c>
+      <c r="G121" s="89"/>
+      <c r="H121" s="14">
+        <v>204</v>
+      </c>
+      <c r="I121" s="33" t="s">
+        <v>585</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10627,10 +11180,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97:D110"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12736,8 +13289,8 @@
       <c r="B129" s="60">
         <v>94</v>
       </c>
-      <c r="C129" s="68" t="s">
-        <v>166</v>
+      <c r="C129" s="65" t="s">
+        <v>586</v>
       </c>
       <c r="D129" s="60">
         <v>0</v>
@@ -12891,7 +13444,7 @@
         <v>94</v>
       </c>
       <c r="C140" s="65" t="s">
-        <v>380</v>
+        <v>587</v>
       </c>
       <c r="D140" s="60">
         <v>0</v>
@@ -12985,7 +13538,200 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C147" s="35"/>
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4">
+        <v>99</v>
+      </c>
+      <c r="C147" s="65" t="s">
+        <v>586</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="85">
+        <v>147</v>
+      </c>
+      <c r="B148" s="85">
+        <v>99</v>
+      </c>
+      <c r="C148" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="85">
+        <v>148</v>
+      </c>
+      <c r="B149" s="85">
+        <v>99</v>
+      </c>
+      <c r="C149" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="85">
+        <v>149</v>
+      </c>
+      <c r="B150" s="85">
+        <v>99</v>
+      </c>
+      <c r="C150" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="85">
+        <v>150</v>
+      </c>
+      <c r="B151" s="85">
+        <v>99</v>
+      </c>
+      <c r="C151" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="85">
+        <v>151</v>
+      </c>
+      <c r="B152" s="85">
+        <v>99</v>
+      </c>
+      <c r="C152" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="85">
+        <v>152</v>
+      </c>
+      <c r="B153" s="85">
+        <v>99</v>
+      </c>
+      <c r="C153" s="65" t="s">
+        <v>589</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="85">
+        <v>153</v>
+      </c>
+      <c r="B154" s="85">
+        <v>99</v>
+      </c>
+      <c r="C154" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="85">
+        <v>154</v>
+      </c>
+      <c r="B155" s="85">
+        <v>99</v>
+      </c>
+      <c r="C155" s="68" t="s">
+        <v>376</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="85">
+        <v>155</v>
+      </c>
+      <c r="B156" s="85">
+        <v>99</v>
+      </c>
+      <c r="C156" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="85">
+        <v>156</v>
+      </c>
+      <c r="B157" s="85">
+        <v>99</v>
+      </c>
+      <c r="C157" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="85">
+        <v>157</v>
+      </c>
+      <c r="B158" s="85">
+        <v>99</v>
+      </c>
+      <c r="C158" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="85">
+        <v>158</v>
+      </c>
+      <c r="B159" s="85">
+        <v>100</v>
+      </c>
+      <c r="C159" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="D159" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="14">
+        <v>101</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="D160" s="14">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -12996,11 +13742,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14107,7 +14853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -14124,7 +14870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="61">
         <v>65</v>
       </c>
@@ -14141,7 +14887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="61">
         <v>66</v>
       </c>
@@ -14158,7 +14904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="61">
         <v>67</v>
       </c>
@@ -14175,7 +14921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="61">
         <v>68</v>
       </c>
@@ -14192,7 +14938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="61">
         <v>69</v>
       </c>
@@ -14208,6 +14954,24 @@
       <c r="E70" s="60">
         <v>3</v>
       </c>
+    </row>
+    <row r="71" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="13">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13">
+        <v>39</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="D71" s="70" t="s">
+        <v>596</v>
+      </c>
+      <c r="E71" s="14">
+        <v>3</v>
+      </c>
+      <c r="F71" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -14217,11 +14981,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I285"/>
+  <dimension ref="A1:I291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19211,6 +19975,108 @@
         <v>1</v>
       </c>
       <c r="E285" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="33">
+        <v>285</v>
+      </c>
+      <c r="B286" s="14">
+        <v>199</v>
+      </c>
+      <c r="C286" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="D286" s="70" t="s">
+        <v>602</v>
+      </c>
+      <c r="E286" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="33">
+        <v>286</v>
+      </c>
+      <c r="B287" s="14">
+        <v>200</v>
+      </c>
+      <c r="C287" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="D287" s="4">
+        <v>200</v>
+      </c>
+      <c r="E287" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="33">
+        <v>287</v>
+      </c>
+      <c r="B288" s="14">
+        <v>201</v>
+      </c>
+      <c r="C288" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="D288" s="4">
+        <v>300</v>
+      </c>
+      <c r="E288" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="33">
+        <v>288</v>
+      </c>
+      <c r="B289" s="14">
+        <v>202</v>
+      </c>
+      <c r="C289" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="D289" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E289" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="33">
+        <v>289</v>
+      </c>
+      <c r="B290" s="14">
+        <v>203</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="D290" s="4">
+        <v>100</v>
+      </c>
+      <c r="E290" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="33">
+        <v>290</v>
+      </c>
+      <c r="B291" s="14">
+        <v>204</v>
+      </c>
+      <c r="C291" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="D291" s="4">
+        <v>300</v>
+      </c>
+      <c r="E291" s="4">
         <v>1</v>
       </c>
     </row>
@@ -19358,10 +20224,10 @@
       <c r="A2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="86" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="85">
+      <c r="C2" s="86">
         <v>1</v>
       </c>
     </row>
@@ -19369,8 +20235,8 @@
       <c r="A3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -19420,10 +20286,10 @@
       <c r="A8" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="86" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="86" t="s">
         <v>260</v>
       </c>
     </row>
@@ -19431,17 +20297,17 @@
       <c r="A9" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="86">
         <v>1</v>
       </c>
     </row>
@@ -19449,8 +20315,8 @@
       <c r="A11" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -19555,10 +20421,10 @@
       <c r="A21" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="87">
         <v>1</v>
       </c>
     </row>
@@ -19566,8 +20432,8 @@
       <c r="A22" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -52573,10 +53439,10 @@
       <c r="A45" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="86" t="s">
         <v>318</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="86" t="s">
         <v>260</v>
       </c>
     </row>
@@ -52584,8 +53450,8 @@
       <c r="A46" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -52688,16 +53554,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_hlw/task_server.xlsx
+++ b/config_hlw/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="604">
   <si>
     <t>id|任务id</t>
   </si>
@@ -2797,6 +2797,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2862,6 +2863,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xian_shi_hong_bao_task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3309,17 +3314,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3600,9 +3605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
+      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7901,11 +7906,11 @@
       <c r="E115" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="F115" s="13" t="s">
-        <v>572</v>
+      <c r="F115" s="28" t="s">
+        <v>603</v>
       </c>
       <c r="G115" s="61">
-        <v>100018</v>
+        <v>100019</v>
       </c>
       <c r="J115" s="13" t="b">
         <v>1</v>
@@ -7943,7 +7948,7 @@
         <v>572</v>
       </c>
       <c r="G116" s="61">
-        <v>100018</v>
+        <v>100020</v>
       </c>
       <c r="H116" s="28"/>
       <c r="I116" s="28"/>
@@ -7983,7 +7988,7 @@
         <v>572</v>
       </c>
       <c r="G117" s="61">
-        <v>100018</v>
+        <v>100021</v>
       </c>
       <c r="J117" s="13" t="b">
         <v>1</v>
@@ -8021,7 +8026,7 @@
         <v>572</v>
       </c>
       <c r="G118" s="61">
-        <v>100018</v>
+        <v>100022</v>
       </c>
       <c r="J118" s="13" t="b">
         <v>1</v>
@@ -8059,7 +8064,7 @@
         <v>572</v>
       </c>
       <c r="G119" s="61">
-        <v>100018</v>
+        <v>100023</v>
       </c>
       <c r="H119" s="28"/>
       <c r="I119" s="28"/>
@@ -8099,7 +8104,7 @@
         <v>572</v>
       </c>
       <c r="G120" s="61">
-        <v>100018</v>
+        <v>100024</v>
       </c>
       <c r="J120" s="13" t="b">
         <v>1</v>
@@ -8128,9 +8133,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
+      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11045,10 +11050,10 @@
         <v>99</v>
       </c>
       <c r="E116" s="14"/>
-      <c r="F116" s="88" t="s">
+      <c r="F116" s="86" t="s">
         <v>584</v>
       </c>
-      <c r="G116" s="89"/>
+      <c r="G116" s="87"/>
       <c r="H116" s="14">
         <v>199</v>
       </c>
@@ -11068,10 +11073,10 @@
         <v>100</v>
       </c>
       <c r="E117" s="14"/>
-      <c r="F117" s="88" t="s">
+      <c r="F117" s="86" t="s">
         <v>591</v>
       </c>
-      <c r="G117" s="89"/>
+      <c r="G117" s="87"/>
       <c r="H117" s="14">
         <v>200</v>
       </c>
@@ -11091,10 +11096,10 @@
         <v>101</v>
       </c>
       <c r="E118" s="14"/>
-      <c r="F118" s="88" t="s">
+      <c r="F118" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="G118" s="89"/>
+      <c r="G118" s="87"/>
       <c r="H118" s="14">
         <v>201</v>
       </c>
@@ -11114,10 +11119,10 @@
         <v>99</v>
       </c>
       <c r="E119" s="14"/>
-      <c r="F119" s="88" t="s">
+      <c r="F119" s="86" t="s">
         <v>598</v>
       </c>
-      <c r="G119" s="89"/>
+      <c r="G119" s="87"/>
       <c r="H119" s="14">
         <v>202</v>
       </c>
@@ -11137,10 +11142,10 @@
         <v>99</v>
       </c>
       <c r="E120" s="14"/>
-      <c r="F120" s="88" t="s">
+      <c r="F120" s="86" t="s">
         <v>599</v>
       </c>
-      <c r="G120" s="89"/>
+      <c r="G120" s="87"/>
       <c r="H120" s="14">
         <v>203</v>
       </c>
@@ -11160,10 +11165,10 @@
         <v>99</v>
       </c>
       <c r="E121" s="14"/>
-      <c r="F121" s="88" t="s">
+      <c r="F121" s="86" t="s">
         <v>600</v>
       </c>
-      <c r="G121" s="89"/>
+      <c r="G121" s="87"/>
       <c r="H121" s="14">
         <v>204</v>
       </c>
@@ -20224,10 +20229,10 @@
       <c r="A2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="88" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="86">
+      <c r="C2" s="88">
         <v>1</v>
       </c>
     </row>
@@ -20235,8 +20240,8 @@
       <c r="A3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -20286,10 +20291,10 @@
       <c r="A8" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="88" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="88" t="s">
         <v>260</v>
       </c>
     </row>
@@ -20297,17 +20302,17 @@
       <c r="A9" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="88" t="s">
         <v>268</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="88">
         <v>1</v>
       </c>
     </row>
@@ -20315,8 +20320,8 @@
       <c r="A11" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -20421,10 +20426,10 @@
       <c r="A21" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="89">
         <v>1</v>
       </c>
     </row>
@@ -20432,8 +20437,8 @@
       <c r="A22" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -53439,10 +53444,10 @@
       <c r="A45" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="88" t="s">
         <v>318</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="88" t="s">
         <v>260</v>
       </c>
     </row>
@@ -53450,8 +53455,8 @@
       <c r="A46" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -53554,16 +53559,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_hlw/task_server.xlsx
+++ b/config_hlw/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -3605,9 +3605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V120"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
+      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7912,6 +7912,9 @@
       <c r="G115" s="61">
         <v>100019</v>
       </c>
+      <c r="H115" s="13">
+        <v>1</v>
+      </c>
       <c r="J115" s="13" t="b">
         <v>1</v>
       </c>
@@ -7950,7 +7953,9 @@
       <c r="G116" s="61">
         <v>100020</v>
       </c>
-      <c r="H116" s="28"/>
+      <c r="H116" s="28">
+        <v>1</v>
+      </c>
       <c r="I116" s="28"/>
       <c r="J116" s="13" t="b">
         <v>1</v>
@@ -7990,6 +7995,9 @@
       <c r="G117" s="61">
         <v>100021</v>
       </c>
+      <c r="H117" s="13">
+        <v>1</v>
+      </c>
       <c r="J117" s="13" t="b">
         <v>1</v>
       </c>
@@ -8028,6 +8036,9 @@
       <c r="G118" s="61">
         <v>100022</v>
       </c>
+      <c r="H118" s="13">
+        <v>1</v>
+      </c>
       <c r="J118" s="13" t="b">
         <v>1</v>
       </c>
@@ -8066,7 +8077,9 @@
       <c r="G119" s="61">
         <v>100023</v>
       </c>
-      <c r="H119" s="28"/>
+      <c r="H119" s="28">
+        <v>1</v>
+      </c>
       <c r="I119" s="28"/>
       <c r="J119" s="13" t="b">
         <v>1</v>
@@ -8105,6 +8118,9 @@
       </c>
       <c r="G120" s="61">
         <v>100024</v>
+      </c>
+      <c r="H120" s="13">
+        <v>1</v>
       </c>
       <c r="J120" s="13" t="b">
         <v>1</v>
@@ -8133,9 +8149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -53559,16 +53575,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_hlw/task_server.xlsx
+++ b/config_hlw/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2806,10 +2806,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>buyu_3d_target_yu</t>
   </si>
   <si>
@@ -2842,14 +2838,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>任意游戏累计赢金10000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>50000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2867,6 +2855,18 @@
   </si>
   <si>
     <t>xian_shi_hong_bao_task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1000000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3605,9 +3605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7907,7 +7907,7 @@
         <v>583</v>
       </c>
       <c r="F115" s="28" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G115" s="61">
         <v>100019</v>
@@ -8025,7 +8025,7 @@
         <v>576</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="E118" s="28" t="s">
         <v>583</v>
@@ -8149,9 +8149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
+      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11090,7 +11090,7 @@
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="86" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="G117" s="87"/>
       <c r="H117" s="14">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="E118" s="14"/>
       <c r="F118" s="86" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G118" s="87"/>
       <c r="H118" s="14">
@@ -11136,7 +11136,7 @@
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="86" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="G119" s="87"/>
       <c r="H119" s="14">
@@ -11159,7 +11159,7 @@
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="86" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G120" s="87"/>
       <c r="H120" s="14">
@@ -11182,7 +11182,7 @@
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="86" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G121" s="87"/>
       <c r="H121" s="14">
@@ -13734,7 +13734,7 @@
         <v>100</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D159" s="11">
         <v>0</v>
@@ -13748,7 +13748,7 @@
         <v>101</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D160" s="14">
         <v>39</v>
@@ -14984,10 +14984,10 @@
         <v>39</v>
       </c>
       <c r="C71" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="D71" s="70" t="s">
         <v>595</v>
-      </c>
-      <c r="D71" s="70" t="s">
-        <v>596</v>
       </c>
       <c r="E71" s="14">
         <v>3</v>
@@ -20007,10 +20007,10 @@
         <v>199</v>
       </c>
       <c r="C286" s="33" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D286" s="70" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E286" s="14">
         <v>1</v>
@@ -20024,7 +20024,7 @@
         <v>200</v>
       </c>
       <c r="C287" s="33" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D287" s="4">
         <v>200</v>
@@ -20041,7 +20041,7 @@
         <v>201</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D288" s="4">
         <v>300</v>
@@ -20058,7 +20058,7 @@
         <v>202</v>
       </c>
       <c r="C289" s="33" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D289" s="4">
         <v>1000</v>
@@ -20075,7 +20075,7 @@
         <v>203</v>
       </c>
       <c r="C290" s="33" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D290" s="4">
         <v>100</v>
@@ -20092,7 +20092,7 @@
         <v>204</v>
       </c>
       <c r="C291" s="33" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D291" s="4">
         <v>300</v>
@@ -53575,16 +53575,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
